--- a/nc_exam/exam_admin/upload/站调星级实作题库最新.xlsx
+++ b/nc_exam/exam_admin/upload/站调星级实作题库最新.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8370"/>
+    <workbookView windowWidth="19770" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="货检车间实作题库" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -1868,9 +1867,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1940,7 +1939,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1948,68 +1947,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2024,7 +1961,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2046,16 +2021,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2068,9 +2051,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2092,25 +2091,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2122,13 +2115,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="11"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2140,49 +2133,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="46"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="36"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="52"/>
+        <fgColor indexed="11"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2200,13 +2151,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2218,19 +2211,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor indexed="36"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2242,25 +2235,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor indexed="52"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2335,50 +2334,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -2396,6 +2351,65 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -2405,8 +2419,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2425,21 +2439,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2448,10 +2447,10 @@
     <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2460,133 +2459,133 @@
     <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5647,20 +5646,4 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
 </file>